--- a/dashboard/1.1.1_ghg.xlsx
+++ b/dashboard/1.1.1_ghg.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\NDC_dash\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0C0BE9-423B-439F-8AFF-DAEFB200920D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C132C8E-731E-49E0-8457-AA2F472E23E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1.1_chg" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1002,14 +1005,14 @@
     <t>118.77</t>
   </si>
   <si>
-    <t>Regional Pacific NDC Hub</t>
+    <t>Exists in Countries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1028,6 +1031,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Montserrat"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1042,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1076,11 +1086,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1088,11 +1107,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1128,6 +1160,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="countries"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Albania</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Antigua and Barbuda</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Argentina</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Armenia</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Australia</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Bangladesh</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Belgium</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Belize</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Benin</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Bolivia</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Brazil</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Burkina Faso</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Burundi</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Cambodia</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Cameroon</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Canada</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Central African Republic</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Chad</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Chile</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Colombia</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Costa Rica</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Côte d'Ivoire</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Congo, Dem. Rep.</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Denmark</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Dominica</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Dominican Republic</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Ecuador</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>El Salvador</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Equatorial Guinea</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Eswatini</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Ethiopia</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>European Commission</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Fiji</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Finland</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>France</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Gabon</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Georgia</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Germany</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Ghana</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Grenada</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Guatemala</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Guinea (Conakry)</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Guinea-Bissau</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Haiti</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Honduras</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Indonesia</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Ireland</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Italy</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Jamaica</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Japan</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Jordan</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Kenya</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Kyrgyz Republic</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Lao PDR</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Lebanon</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Lesotho</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Liberia</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Malawi</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Maldives</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Mali</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Marshall Islands (RMI)</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Mauritania</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Mexico</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Micronesia</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Mongolia</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Morocco</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Mozambique</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Myanmar</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Namibia</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Nauru</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Nepal</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Netherlands</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>New Zealand</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Nicaragua</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Niger</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Nigeria</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Norway</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Pakistan</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Panama</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Papua New Guinea</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Paraguay</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Peru</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Philippines</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Congo, Rep.</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>Rwanda</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>St. Kitts and Nevis</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>St. Lucia</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>St. Vincent and the Grenadines</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>Samoa</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>Samoa</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>Sao Tome e Principe</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>Senegal</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>Seychelles</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>Sierra Leone</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>Singapore</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>Somalia</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>South Africa</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>Spain</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>Palestine</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>Sudan</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>Sweden</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>Tajikistan</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>Thailand</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>The Gambia</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>Togo</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>Tonga</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Tunisia</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>Uganda</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>Ukraine</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>United Kingdom</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>United States</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>Uruguay</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>Vanuatu</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>Viet Nam</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>Zambia</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>Zimbabwe</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>Bahamas</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>Regional Pacific NDC Hub</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>Afghanistan</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>Algeria</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>Andorra</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>Angola</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>Austria</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>Azerbaijan</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>Bahrain</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>Barbados</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>Belarus</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>Bhutan</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>Bosnia and Herzegovina</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>Botswana</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>Brunei</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>Bulgaria</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>Cabo Verde</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>China</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>Comoros</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>Croatia</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>Cuba</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>Cyprus</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>Czechia</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>Djibouti</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>Egypt</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>Eritrea</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>Estonia</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>Greece</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>Guyana</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>Hungary</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>Iceland</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>India</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>Iran</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>Iraq</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>Israel</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>Kazakhstan</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>Kiribati</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>Kuwait</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>Latvia</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>Libya</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>Liechtenstein</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>Lithuania</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>Luxembourg</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>Madagascar</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>Malaysia</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>Malta</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>Mauritius</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>Moldova</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>Monaco</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>Montenegro</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>North Korea</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>North Macedonia</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>Oman</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>Palau</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>Poland</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>Portugal</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>Qatar</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>Romania</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>Russia</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>San Marino</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>Saudi Arabia</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>Serbia</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>Slovakia</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>Slovenia</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>Solomon Islands</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>South Korea</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>South Sudan</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>Sri Lanka</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>Suriname</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>Switzerland</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>Syria</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>Tanzania</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>Timor-Leste</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>Trinidad and Tobago</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>Turkey</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>Turkmenistan</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>Tuvalu</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>United Arab Emirates</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>Uzbekistan</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>Venezuela</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>Yemen</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:L403"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K108"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,7 +2451,7 @@
     <col min="1" max="11" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1454,8 +2485,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L1" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1476,8 +2510,12 @@
         <f>IF(B2&lt;C2,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L2" t="b">
+        <f>IF(ISBLANK(A2),"", NOT(ISERROR(MATCH(A2,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1498,8 +2536,12 @@
         <f t="shared" ref="K3:K66" si="0">IF(B3&lt;C3,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L3" t="b">
+        <f>IF(ISBLANK(A3),"", NOT(ISERROR(MATCH(A3,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,8 +2562,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L4" t="b">
+        <f>IF(ISBLANK(A4),"", NOT(ISERROR(MATCH(A4,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,8 +2588,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L5" t="b">
+        <f>IF(ISBLANK(A5),"", NOT(ISERROR(MATCH(A5,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1564,8 +2614,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L6" t="b">
+        <f>IF(ISBLANK(A6),"", NOT(ISERROR(MATCH(A6,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,8 +2640,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L7" t="b">
+        <f>IF(ISBLANK(A7),"", NOT(ISERROR(MATCH(A7,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1608,8 +2666,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L8" t="b">
+        <f>IF(ISBLANK(A8),"", NOT(ISERROR(MATCH(A8,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1630,8 +2692,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L9" t="b">
+        <f>IF(ISBLANK(A9),"", NOT(ISERROR(MATCH(A9,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1652,8 +2718,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L10" t="b">
+        <f>IF(ISBLANK(A10),"", NOT(ISERROR(MATCH(A10,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,8 +2744,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L11" t="b">
+        <f>IF(ISBLANK(A11),"", NOT(ISERROR(MATCH(A11,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1696,8 +2770,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L12" t="b">
+        <f>IF(ISBLANK(A12),"", NOT(ISERROR(MATCH(A12,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1718,8 +2796,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L13" t="b">
+        <f>IF(ISBLANK(A13),"", NOT(ISERROR(MATCH(A13,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1740,8 +2822,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L14" t="b">
+        <f>IF(ISBLANK(A14),"", NOT(ISERROR(MATCH(A14,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1762,8 +2848,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L15" t="b">
+        <f>IF(ISBLANK(A15),"", NOT(ISERROR(MATCH(A15,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1784,8 +2874,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L16" t="b">
+        <f>IF(ISBLANK(A16),"", NOT(ISERROR(MATCH(A16,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1806,8 +2900,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L17" t="b">
+        <f>IF(ISBLANK(A17),"", NOT(ISERROR(MATCH(A17,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1828,8 +2926,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L18" t="b">
+        <f>IF(ISBLANK(A18),"", NOT(ISERROR(MATCH(A18,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1850,8 +2952,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L19" t="b">
+        <f>IF(ISBLANK(A19),"", NOT(ISERROR(MATCH(A19,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1872,8 +2978,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L20" t="b">
+        <f>IF(ISBLANK(A20),"", NOT(ISERROR(MATCH(A20,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1894,8 +3004,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L21" t="b">
+        <f>IF(ISBLANK(A21),"", NOT(ISERROR(MATCH(A21,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1916,8 +3030,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L22" t="b">
+        <f>IF(ISBLANK(A22),"", NOT(ISERROR(MATCH(A22,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1938,8 +3056,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L23" t="b">
+        <f>IF(ISBLANK(A23),"", NOT(ISERROR(MATCH(A23,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1960,8 +3082,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L24" t="b">
+        <f>IF(ISBLANK(A24),"", NOT(ISERROR(MATCH(A24,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1982,8 +3108,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L25" t="b">
+        <f>IF(ISBLANK(A25),"", NOT(ISERROR(MATCH(A25,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -2004,8 +3134,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L26" t="b">
+        <f>IF(ISBLANK(A26),"", NOT(ISERROR(MATCH(A26,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2026,8 +3160,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L27" t="b">
+        <f>IF(ISBLANK(A27),"", NOT(ISERROR(MATCH(A27,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2048,8 +3186,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L28" t="b">
+        <f>IF(ISBLANK(A28),"", NOT(ISERROR(MATCH(A28,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -2070,8 +3212,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L29" t="b">
+        <f>IF(ISBLANK(A29),"", NOT(ISERROR(MATCH(A29,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -2092,8 +3238,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L30" t="b">
+        <f>IF(ISBLANK(A30),"", NOT(ISERROR(MATCH(A30,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -2114,8 +3264,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L31" t="b">
+        <f>IF(ISBLANK(A31),"", NOT(ISERROR(MATCH(A31,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2136,8 +3290,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L32" t="b">
+        <f>IF(ISBLANK(A32),"", NOT(ISERROR(MATCH(A32,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -2158,8 +3316,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L33" t="b">
+        <f>IF(ISBLANK(A33),"", NOT(ISERROR(MATCH(A33,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -2180,8 +3342,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L34" t="b">
+        <f>IF(ISBLANK(A34),"", NOT(ISERROR(MATCH(A34,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2202,8 +3368,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L35" t="b">
+        <f>IF(ISBLANK(A35),"", NOT(ISERROR(MATCH(A35,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -2224,8 +3394,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L36" t="b">
+        <f>IF(ISBLANK(A36),"", NOT(ISERROR(MATCH(A36,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -2246,8 +3420,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L37" t="b">
+        <f>IF(ISBLANK(A37),"", NOT(ISERROR(MATCH(A37,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -2268,8 +3446,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L38" t="b">
+        <f>IF(ISBLANK(A38),"", NOT(ISERROR(MATCH(A38,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
@@ -2290,8 +3472,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L39" t="b">
+        <f>IF(ISBLANK(A39),"", NOT(ISERROR(MATCH(A39,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
@@ -2312,8 +3498,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L40" t="b">
+        <f>IF(ISBLANK(A40),"", NOT(ISERROR(MATCH(A40,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
@@ -2334,8 +3524,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L41" t="b">
+        <f>IF(ISBLANK(A41),"", NOT(ISERROR(MATCH(A41,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -2356,8 +3550,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L42" t="b">
+        <f>IF(ISBLANK(A42),"", NOT(ISERROR(MATCH(A42,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>134</v>
       </c>
@@ -2378,8 +3576,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L43" t="b">
+        <f>IF(ISBLANK(A43),"", NOT(ISERROR(MATCH(A43,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>137</v>
       </c>
@@ -2400,8 +3602,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L44" t="b">
+        <f>IF(ISBLANK(A44),"", NOT(ISERROR(MATCH(A44,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -2422,8 +3628,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L45" t="b">
+        <f>IF(ISBLANK(A45),"", NOT(ISERROR(MATCH(A45,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -2444,8 +3654,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L46" t="b">
+        <f>IF(ISBLANK(A46),"", NOT(ISERROR(MATCH(A46,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
@@ -2466,8 +3680,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L47" t="b">
+        <f>IF(ISBLANK(A47),"", NOT(ISERROR(MATCH(A47,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -2488,8 +3706,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L48" t="b">
+        <f>IF(ISBLANK(A48),"", NOT(ISERROR(MATCH(A48,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
@@ -2510,8 +3732,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L49" t="b">
+        <f>IF(ISBLANK(A49),"", NOT(ISERROR(MATCH(A49,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
@@ -2532,8 +3758,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L50" t="b">
+        <f>IF(ISBLANK(A50),"", NOT(ISERROR(MATCH(A50,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>158</v>
       </c>
@@ -2554,8 +3784,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L51" t="b">
+        <f>IF(ISBLANK(A51),"", NOT(ISERROR(MATCH(A51,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
@@ -2576,8 +3810,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L52" t="b">
+        <f>IF(ISBLANK(A52),"", NOT(ISERROR(MATCH(A52,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -2598,8 +3836,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L53" t="b">
+        <f>IF(ISBLANK(A53),"", NOT(ISERROR(MATCH(A53,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -2620,8 +3862,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L54" t="b">
+        <f>IF(ISBLANK(A54),"", NOT(ISERROR(MATCH(A54,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -2642,8 +3888,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L55" t="b">
+        <f>IF(ISBLANK(A55),"", NOT(ISERROR(MATCH(A55,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -2664,8 +3914,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L56" t="b">
+        <f>IF(ISBLANK(A56),"", NOT(ISERROR(MATCH(A56,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -2686,8 +3940,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L57" t="b">
+        <f>IF(ISBLANK(A57),"", NOT(ISERROR(MATCH(A57,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -2708,8 +3966,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L58" t="b">
+        <f>IF(ISBLANK(A58),"", NOT(ISERROR(MATCH(A58,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>181</v>
       </c>
@@ -2726,8 +3988,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L59" t="b">
+        <f>IF(ISBLANK(A59),"", NOT(ISERROR(MATCH(A59,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>182</v>
       </c>
@@ -2748,8 +4014,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L60" t="b">
+        <f>IF(ISBLANK(A60),"", NOT(ISERROR(MATCH(A60,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>185</v>
       </c>
@@ -2770,8 +4040,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L61" t="b">
+        <f>IF(ISBLANK(A61),"", NOT(ISERROR(MATCH(A61,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>188</v>
       </c>
@@ -2792,8 +4066,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L62" t="b">
+        <f>IF(ISBLANK(A62),"", NOT(ISERROR(MATCH(A62,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>191</v>
       </c>
@@ -2814,8 +4092,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L63" t="b">
+        <f>IF(ISBLANK(A63),"", NOT(ISERROR(MATCH(A63,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>194</v>
       </c>
@@ -2836,8 +4118,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L64" t="b">
+        <f>IF(ISBLANK(A64),"", NOT(ISERROR(MATCH(A64,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>197</v>
       </c>
@@ -2858,8 +4144,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L65" t="b">
+        <f>IF(ISBLANK(A65),"", NOT(ISERROR(MATCH(A65,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>200</v>
       </c>
@@ -2880,8 +4170,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L66" t="b">
+        <f>IF(ISBLANK(A66),"", NOT(ISERROR(MATCH(A66,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>203</v>
       </c>
@@ -2899,11 +4193,15 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K108" si="1">IF(B67&lt;C67,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K67:K107" si="1">IF(B67&lt;C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <f>IF(ISBLANK(A67),"", NOT(ISERROR(MATCH(A67,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2924,8 +4222,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L68" t="b">
+        <f>IF(ISBLANK(A68),"", NOT(ISERROR(MATCH(A68,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2946,8 +4248,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L69" t="b">
+        <f>IF(ISBLANK(A69),"", NOT(ISERROR(MATCH(A69,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2968,8 +4274,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L70" t="b">
+        <f>IF(ISBLANK(A70),"", NOT(ISERROR(MATCH(A70,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -2990,8 +4300,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L71" t="b">
+        <f>IF(ISBLANK(A71),"", NOT(ISERROR(MATCH(A71,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3012,8 +4326,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L72" t="b">
+        <f>IF(ISBLANK(A72),"", NOT(ISERROR(MATCH(A72,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3034,8 +4352,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L73" t="b">
+        <f>IF(ISBLANK(A73),"", NOT(ISERROR(MATCH(A73,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3056,8 +4378,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L74" t="b">
+        <f>IF(ISBLANK(A74),"", NOT(ISERROR(MATCH(A74,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3078,8 +4404,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L75" t="b">
+        <f>IF(ISBLANK(A75),"", NOT(ISERROR(MATCH(A75,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3100,8 +4430,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L76" t="b">
+        <f>IF(ISBLANK(A76),"", NOT(ISERROR(MATCH(A76,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3122,8 +4456,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L77" t="b">
+        <f>IF(ISBLANK(A77),"", NOT(ISERROR(MATCH(A77,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3144,8 +4482,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L78" t="b">
+        <f>IF(ISBLANK(A78),"", NOT(ISERROR(MATCH(A78,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -3166,8 +4508,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L79" t="b">
+        <f>IF(ISBLANK(A79),"", NOT(ISERROR(MATCH(A79,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3188,8 +4534,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L80" t="b">
+        <f>IF(ISBLANK(A80),"", NOT(ISERROR(MATCH(A80,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3210,8 +4560,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L81" t="b">
+        <f>IF(ISBLANK(A81),"", NOT(ISERROR(MATCH(A81,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3232,8 +4586,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L82" t="b">
+        <f>IF(ISBLANK(A82),"", NOT(ISERROR(MATCH(A82,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3254,8 +4612,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L83" t="b">
+        <f>IF(ISBLANK(A83),"", NOT(ISERROR(MATCH(A83,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3276,8 +4638,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L84" t="b">
+        <f>IF(ISBLANK(A84),"", NOT(ISERROR(MATCH(A84,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3298,8 +4664,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L85" t="b">
+        <f>IF(ISBLANK(A85),"", NOT(ISERROR(MATCH(A85,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3320,8 +4690,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L86" t="b">
+        <f>IF(ISBLANK(A86),"", NOT(ISERROR(MATCH(A86,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -3342,8 +4716,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L87" t="b">
+        <f>IF(ISBLANK(A87),"", NOT(ISERROR(MATCH(A87,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -3364,8 +4742,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L88" t="b">
+        <f>IF(ISBLANK(A88),"", NOT(ISERROR(MATCH(A88,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3386,8 +4768,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L89" t="b">
+        <f>IF(ISBLANK(A89),"", NOT(ISERROR(MATCH(A89,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -3408,8 +4794,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L90" t="b">
+        <f>IF(ISBLANK(A90),"", NOT(ISERROR(MATCH(A90,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>275</v>
       </c>
@@ -3430,8 +4820,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L91" t="b">
+        <f>IF(ISBLANK(A91),"", NOT(ISERROR(MATCH(A91,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>277</v>
       </c>
@@ -3452,8 +4846,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L92" t="b">
+        <f>IF(ISBLANK(A92),"", NOT(ISERROR(MATCH(A92,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>280</v>
       </c>
@@ -3474,8 +4872,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L93" t="b">
+        <f>IF(ISBLANK(A93),"", NOT(ISERROR(MATCH(A93,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>283</v>
       </c>
@@ -3496,8 +4898,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L94" t="b">
+        <f>IF(ISBLANK(A94),"", NOT(ISERROR(MATCH(A94,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>286</v>
       </c>
@@ -3518,8 +4924,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L95" t="b">
+        <f>IF(ISBLANK(A95),"", NOT(ISERROR(MATCH(A95,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>289</v>
       </c>
@@ -3540,8 +4950,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L96" t="b">
+        <f>IF(ISBLANK(A96),"", NOT(ISERROR(MATCH(A96,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>292</v>
       </c>
@@ -3562,8 +4976,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L97" t="b">
+        <f>IF(ISBLANK(A97),"", NOT(ISERROR(MATCH(A97,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>295</v>
       </c>
@@ -3584,8 +5002,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L98" t="b">
+        <f>IF(ISBLANK(A98),"", NOT(ISERROR(MATCH(A98,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>297</v>
       </c>
@@ -3606,8 +5028,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L99" t="b">
+        <f>IF(ISBLANK(A99),"", NOT(ISERROR(MATCH(A99,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>300</v>
       </c>
@@ -3628,8 +5054,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L100" t="b">
+        <f>IF(ISBLANK(A100),"", NOT(ISERROR(MATCH(A100,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>302</v>
       </c>
@@ -3650,8 +5080,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L101" t="b">
+        <f>IF(ISBLANK(A101),"", NOT(ISERROR(MATCH(A101,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>305</v>
       </c>
@@ -3672,8 +5106,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L102" t="b">
+        <f>IF(ISBLANK(A102),"", NOT(ISERROR(MATCH(A102,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>308</v>
       </c>
@@ -3694,8 +5132,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L103" t="b">
+        <f>IF(ISBLANK(A103),"", NOT(ISERROR(MATCH(A103,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>311</v>
       </c>
@@ -3716,8 +5158,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L104" t="b">
+        <f>IF(ISBLANK(A104),"", NOT(ISERROR(MATCH(A104,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>314</v>
       </c>
@@ -3738,8 +5184,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L105" t="b">
+        <f>IF(ISBLANK(A105),"", NOT(ISERROR(MATCH(A105,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>317</v>
       </c>
@@ -3760,8 +5210,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="L106" t="b">
+        <f>IF(ISBLANK(A106),"", NOT(ISERROR(MATCH(A106,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>320</v>
       </c>
@@ -3782,32 +5236,1799 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="L107" t="b">
+        <f>IF(ISBLANK(A107),"", NOT(ISERROR(MATCH(A107,[1]countries!$A$2:$A$198,0))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L108" t="str">
+        <f>IF(ISBLANK(A108),"", NOT(ISERROR(MATCH(A108,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L109" t="str">
+        <f>IF(ISBLANK(A109),"", NOT(ISERROR(MATCH(A109,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L110" t="str">
+        <f>IF(ISBLANK(A110),"", NOT(ISERROR(MATCH(A110,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L111" t="str">
+        <f>IF(ISBLANK(A111),"", NOT(ISERROR(MATCH(A111,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L112" t="str">
+        <f>IF(ISBLANK(A112),"", NOT(ISERROR(MATCH(A112,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" t="str">
+        <f>IF(ISBLANK(A113),"", NOT(ISERROR(MATCH(A113,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L114" t="str">
+        <f>IF(ISBLANK(A114),"", NOT(ISERROR(MATCH(A114,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L115" t="str">
+        <f>IF(ISBLANK(A115),"", NOT(ISERROR(MATCH(A115,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" t="str">
+        <f>IF(ISBLANK(A116),"", NOT(ISERROR(MATCH(A116,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" t="str">
+        <f>IF(ISBLANK(A117),"", NOT(ISERROR(MATCH(A117,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L118" t="str">
+        <f>IF(ISBLANK(A118),"", NOT(ISERROR(MATCH(A118,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L119" t="str">
+        <f>IF(ISBLANK(A119),"", NOT(ISERROR(MATCH(A119,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" t="str">
+        <f>IF(ISBLANK(A120),"", NOT(ISERROR(MATCH(A120,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L121" t="str">
+        <f>IF(ISBLANK(A121),"", NOT(ISERROR(MATCH(A121,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L122" t="str">
+        <f>IF(ISBLANK(A122),"", NOT(ISERROR(MATCH(A122,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L123" t="str">
+        <f>IF(ISBLANK(A123),"", NOT(ISERROR(MATCH(A123,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L124" t="str">
+        <f>IF(ISBLANK(A124),"", NOT(ISERROR(MATCH(A124,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L125" t="str">
+        <f>IF(ISBLANK(A125),"", NOT(ISERROR(MATCH(A125,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L126" t="str">
+        <f>IF(ISBLANK(A126),"", NOT(ISERROR(MATCH(A126,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L127" t="str">
+        <f>IF(ISBLANK(A127),"", NOT(ISERROR(MATCH(A127,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L128" t="str">
+        <f>IF(ISBLANK(A128),"", NOT(ISERROR(MATCH(A128,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L129" t="str">
+        <f>IF(ISBLANK(A129),"", NOT(ISERROR(MATCH(A129,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L130" t="str">
+        <f>IF(ISBLANK(A130),"", NOT(ISERROR(MATCH(A130,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L131" t="str">
+        <f>IF(ISBLANK(A131),"", NOT(ISERROR(MATCH(A131,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L132" t="str">
+        <f>IF(ISBLANK(A132),"", NOT(ISERROR(MATCH(A132,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L133" t="str">
+        <f>IF(ISBLANK(A133),"", NOT(ISERROR(MATCH(A133,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L134" t="str">
+        <f>IF(ISBLANK(A134),"", NOT(ISERROR(MATCH(A134,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L135" t="str">
+        <f>IF(ISBLANK(A135),"", NOT(ISERROR(MATCH(A135,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L136" t="str">
+        <f>IF(ISBLANK(A136),"", NOT(ISERROR(MATCH(A136,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L137" t="str">
+        <f>IF(ISBLANK(A137),"", NOT(ISERROR(MATCH(A137,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" t="str">
+        <f>IF(ISBLANK(A138),"", NOT(ISERROR(MATCH(A138,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L139" t="str">
+        <f>IF(ISBLANK(A139),"", NOT(ISERROR(MATCH(A139,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L140" t="str">
+        <f>IF(ISBLANK(A140),"", NOT(ISERROR(MATCH(A140,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L141" t="str">
+        <f>IF(ISBLANK(A141),"", NOT(ISERROR(MATCH(A141,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L142" t="str">
+        <f>IF(ISBLANK(A142),"", NOT(ISERROR(MATCH(A142,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L143" t="str">
+        <f>IF(ISBLANK(A143),"", NOT(ISERROR(MATCH(A143,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L144" t="str">
+        <f>IF(ISBLANK(A144),"", NOT(ISERROR(MATCH(A144,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L145" t="str">
+        <f>IF(ISBLANK(A145),"", NOT(ISERROR(MATCH(A145,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L146" t="str">
+        <f>IF(ISBLANK(A146),"", NOT(ISERROR(MATCH(A146,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" t="str">
+        <f>IF(ISBLANK(A147),"", NOT(ISERROR(MATCH(A147,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L148" t="str">
+        <f>IF(ISBLANK(A148),"", NOT(ISERROR(MATCH(A148,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L149" t="str">
+        <f>IF(ISBLANK(A149),"", NOT(ISERROR(MATCH(A149,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L150" t="str">
+        <f>IF(ISBLANK(A150),"", NOT(ISERROR(MATCH(A150,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L151" t="str">
+        <f>IF(ISBLANK(A151),"", NOT(ISERROR(MATCH(A151,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L152" t="str">
+        <f>IF(ISBLANK(A152),"", NOT(ISERROR(MATCH(A152,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L153" t="str">
+        <f>IF(ISBLANK(A153),"", NOT(ISERROR(MATCH(A153,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L154" t="str">
+        <f>IF(ISBLANK(A154),"", NOT(ISERROR(MATCH(A154,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L155" t="str">
+        <f>IF(ISBLANK(A155),"", NOT(ISERROR(MATCH(A155,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L156" t="str">
+        <f>IF(ISBLANK(A156),"", NOT(ISERROR(MATCH(A156,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L157" t="str">
+        <f>IF(ISBLANK(A157),"", NOT(ISERROR(MATCH(A157,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L158" t="str">
+        <f>IF(ISBLANK(A158),"", NOT(ISERROR(MATCH(A158,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L159" t="str">
+        <f>IF(ISBLANK(A159),"", NOT(ISERROR(MATCH(A159,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L160" t="str">
+        <f>IF(ISBLANK(A160),"", NOT(ISERROR(MATCH(A160,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L161" t="str">
+        <f>IF(ISBLANK(A161),"", NOT(ISERROR(MATCH(A161,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L162" t="str">
+        <f>IF(ISBLANK(A162),"", NOT(ISERROR(MATCH(A162,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L163" t="str">
+        <f>IF(ISBLANK(A163),"", NOT(ISERROR(MATCH(A163,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L164" t="str">
+        <f>IF(ISBLANK(A164),"", NOT(ISERROR(MATCH(A164,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L165" t="str">
+        <f>IF(ISBLANK(A165),"", NOT(ISERROR(MATCH(A165,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L166" t="str">
+        <f>IF(ISBLANK(A166),"", NOT(ISERROR(MATCH(A166,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L167" t="str">
+        <f>IF(ISBLANK(A167),"", NOT(ISERROR(MATCH(A167,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L168" t="str">
+        <f>IF(ISBLANK(A168),"", NOT(ISERROR(MATCH(A168,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L169" t="str">
+        <f>IF(ISBLANK(A169),"", NOT(ISERROR(MATCH(A169,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L170" t="str">
+        <f>IF(ISBLANK(A170),"", NOT(ISERROR(MATCH(A170,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L171" t="str">
+        <f>IF(ISBLANK(A171),"", NOT(ISERROR(MATCH(A171,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L172" t="str">
+        <f>IF(ISBLANK(A172),"", NOT(ISERROR(MATCH(A172,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L173" t="str">
+        <f>IF(ISBLANK(A173),"", NOT(ISERROR(MATCH(A173,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L174" t="str">
+        <f>IF(ISBLANK(A174),"", NOT(ISERROR(MATCH(A174,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L175" t="str">
+        <f>IF(ISBLANK(A175),"", NOT(ISERROR(MATCH(A175,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L176" t="str">
+        <f>IF(ISBLANK(A176),"", NOT(ISERROR(MATCH(A176,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" t="str">
+        <f>IF(ISBLANK(A177),"", NOT(ISERROR(MATCH(A177,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L178" t="str">
+        <f>IF(ISBLANK(A178),"", NOT(ISERROR(MATCH(A178,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" t="str">
+        <f>IF(ISBLANK(A179),"", NOT(ISERROR(MATCH(A179,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L180" t="str">
+        <f>IF(ISBLANK(A180),"", NOT(ISERROR(MATCH(A180,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L181" t="str">
+        <f>IF(ISBLANK(A181),"", NOT(ISERROR(MATCH(A181,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" t="str">
+        <f>IF(ISBLANK(A182),"", NOT(ISERROR(MATCH(A182,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L183" t="str">
+        <f>IF(ISBLANK(A183),"", NOT(ISERROR(MATCH(A183,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L184" t="str">
+        <f>IF(ISBLANK(A184),"", NOT(ISERROR(MATCH(A184,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L185" t="str">
+        <f>IF(ISBLANK(A185),"", NOT(ISERROR(MATCH(A185,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L186" t="str">
+        <f>IF(ISBLANK(A186),"", NOT(ISERROR(MATCH(A186,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L187" t="str">
+        <f>IF(ISBLANK(A187),"", NOT(ISERROR(MATCH(A187,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L188" t="str">
+        <f>IF(ISBLANK(A188),"", NOT(ISERROR(MATCH(A188,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L189" t="str">
+        <f>IF(ISBLANK(A189),"", NOT(ISERROR(MATCH(A189,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L190" t="str">
+        <f>IF(ISBLANK(A190),"", NOT(ISERROR(MATCH(A190,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L191" t="str">
+        <f>IF(ISBLANK(A191),"", NOT(ISERROR(MATCH(A191,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L192" t="str">
+        <f>IF(ISBLANK(A192),"", NOT(ISERROR(MATCH(A192,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L193" t="str">
+        <f>IF(ISBLANK(A193),"", NOT(ISERROR(MATCH(A193,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L194" t="str">
+        <f>IF(ISBLANK(A194),"", NOT(ISERROR(MATCH(A194,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L195" t="str">
+        <f>IF(ISBLANK(A195),"", NOT(ISERROR(MATCH(A195,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L196" t="str">
+        <f>IF(ISBLANK(A196),"", NOT(ISERROR(MATCH(A196,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L197" t="str">
+        <f>IF(ISBLANK(A197),"", NOT(ISERROR(MATCH(A197,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L198" t="str">
+        <f>IF(ISBLANK(A198),"", NOT(ISERROR(MATCH(A198,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L199" t="str">
+        <f>IF(ISBLANK(A199),"", NOT(ISERROR(MATCH(A199,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L200" t="str">
+        <f>IF(ISBLANK(A200),"", NOT(ISERROR(MATCH(A200,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L201" t="str">
+        <f>IF(ISBLANK(A201),"", NOT(ISERROR(MATCH(A201,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L202" t="str">
+        <f>IF(ISBLANK(A202),"", NOT(ISERROR(MATCH(A202,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L203" t="str">
+        <f>IF(ISBLANK(A203),"", NOT(ISERROR(MATCH(A203,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L204" t="str">
+        <f>IF(ISBLANK(A204),"", NOT(ISERROR(MATCH(A204,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L205" t="str">
+        <f>IF(ISBLANK(A205),"", NOT(ISERROR(MATCH(A205,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L206" t="str">
+        <f>IF(ISBLANK(A206),"", NOT(ISERROR(MATCH(A206,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L207" t="str">
+        <f>IF(ISBLANK(A207),"", NOT(ISERROR(MATCH(A207,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L208" t="str">
+        <f>IF(ISBLANK(A208),"", NOT(ISERROR(MATCH(A208,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L209" t="str">
+        <f>IF(ISBLANK(A209),"", NOT(ISERROR(MATCH(A209,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L210" t="str">
+        <f>IF(ISBLANK(A210),"", NOT(ISERROR(MATCH(A210,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L211" t="str">
+        <f>IF(ISBLANK(A211),"", NOT(ISERROR(MATCH(A211,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L212" t="str">
+        <f>IF(ISBLANK(A212),"", NOT(ISERROR(MATCH(A212,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L213" t="str">
+        <f>IF(ISBLANK(A213),"", NOT(ISERROR(MATCH(A213,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L214" t="str">
+        <f>IF(ISBLANK(A214),"", NOT(ISERROR(MATCH(A214,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L215" t="str">
+        <f>IF(ISBLANK(A215),"", NOT(ISERROR(MATCH(A215,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L216" t="str">
+        <f>IF(ISBLANK(A216),"", NOT(ISERROR(MATCH(A216,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L217" t="str">
+        <f>IF(ISBLANK(A217),"", NOT(ISERROR(MATCH(A217,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L218" t="str">
+        <f>IF(ISBLANK(A218),"", NOT(ISERROR(MATCH(A218,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L219" t="str">
+        <f>IF(ISBLANK(A219),"", NOT(ISERROR(MATCH(A219,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L220" t="str">
+        <f>IF(ISBLANK(A220),"", NOT(ISERROR(MATCH(A220,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L221" t="str">
+        <f>IF(ISBLANK(A221),"", NOT(ISERROR(MATCH(A221,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L222" t="str">
+        <f>IF(ISBLANK(A222),"", NOT(ISERROR(MATCH(A222,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L223" t="str">
+        <f>IF(ISBLANK(A223),"", NOT(ISERROR(MATCH(A223,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L224" t="str">
+        <f>IF(ISBLANK(A224),"", NOT(ISERROR(MATCH(A224,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L225" t="str">
+        <f>IF(ISBLANK(A225),"", NOT(ISERROR(MATCH(A225,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L226" t="str">
+        <f>IF(ISBLANK(A226),"", NOT(ISERROR(MATCH(A226,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L227" t="str">
+        <f>IF(ISBLANK(A227),"", NOT(ISERROR(MATCH(A227,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L228" t="str">
+        <f>IF(ISBLANK(A228),"", NOT(ISERROR(MATCH(A228,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L229" t="str">
+        <f>IF(ISBLANK(A229),"", NOT(ISERROR(MATCH(A229,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L230" t="str">
+        <f>IF(ISBLANK(A230),"", NOT(ISERROR(MATCH(A230,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L231" t="str">
+        <f>IF(ISBLANK(A231),"", NOT(ISERROR(MATCH(A231,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L232" t="str">
+        <f>IF(ISBLANK(A232),"", NOT(ISERROR(MATCH(A232,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L233" t="str">
+        <f>IF(ISBLANK(A233),"", NOT(ISERROR(MATCH(A233,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L234" t="str">
+        <f>IF(ISBLANK(A234),"", NOT(ISERROR(MATCH(A234,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L235" t="str">
+        <f>IF(ISBLANK(A235),"", NOT(ISERROR(MATCH(A235,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L236" t="str">
+        <f>IF(ISBLANK(A236),"", NOT(ISERROR(MATCH(A236,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L237" t="str">
+        <f>IF(ISBLANK(A237),"", NOT(ISERROR(MATCH(A237,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L238" t="str">
+        <f>IF(ISBLANK(A238),"", NOT(ISERROR(MATCH(A238,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L239" t="str">
+        <f>IF(ISBLANK(A239),"", NOT(ISERROR(MATCH(A239,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L240" t="str">
+        <f>IF(ISBLANK(A240),"", NOT(ISERROR(MATCH(A240,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L241" t="str">
+        <f>IF(ISBLANK(A241),"", NOT(ISERROR(MATCH(A241,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L242" t="str">
+        <f>IF(ISBLANK(A242),"", NOT(ISERROR(MATCH(A242,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L243" t="str">
+        <f>IF(ISBLANK(A243),"", NOT(ISERROR(MATCH(A243,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L244" t="str">
+        <f>IF(ISBLANK(A244),"", NOT(ISERROR(MATCH(A244,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L245" t="str">
+        <f>IF(ISBLANK(A245),"", NOT(ISERROR(MATCH(A245,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L246" t="str">
+        <f>IF(ISBLANK(A246),"", NOT(ISERROR(MATCH(A246,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L247" t="str">
+        <f>IF(ISBLANK(A247),"", NOT(ISERROR(MATCH(A247,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L248" t="str">
+        <f>IF(ISBLANK(A248),"", NOT(ISERROR(MATCH(A248,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L249" t="str">
+        <f>IF(ISBLANK(A249),"", NOT(ISERROR(MATCH(A249,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L250" t="str">
+        <f>IF(ISBLANK(A250),"", NOT(ISERROR(MATCH(A250,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L251" t="str">
+        <f>IF(ISBLANK(A251),"", NOT(ISERROR(MATCH(A251,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L252" t="str">
+        <f>IF(ISBLANK(A252),"", NOT(ISERROR(MATCH(A252,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L253" t="str">
+        <f>IF(ISBLANK(A253),"", NOT(ISERROR(MATCH(A253,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L254" t="str">
+        <f>IF(ISBLANK(A254),"", NOT(ISERROR(MATCH(A254,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L255" t="str">
+        <f>IF(ISBLANK(A255),"", NOT(ISERROR(MATCH(A255,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L256" t="str">
+        <f>IF(ISBLANK(A256),"", NOT(ISERROR(MATCH(A256,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L257" t="str">
+        <f>IF(ISBLANK(A257),"", NOT(ISERROR(MATCH(A257,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L258" t="str">
+        <f>IF(ISBLANK(A258),"", NOT(ISERROR(MATCH(A258,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L259" t="str">
+        <f>IF(ISBLANK(A259),"", NOT(ISERROR(MATCH(A259,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L260" t="str">
+        <f>IF(ISBLANK(A260),"", NOT(ISERROR(MATCH(A260,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L261" t="str">
+        <f>IF(ISBLANK(A261),"", NOT(ISERROR(MATCH(A261,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L262" t="str">
+        <f>IF(ISBLANK(A262),"", NOT(ISERROR(MATCH(A262,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L263" t="str">
+        <f>IF(ISBLANK(A263),"", NOT(ISERROR(MATCH(A263,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L264" t="str">
+        <f>IF(ISBLANK(A264),"", NOT(ISERROR(MATCH(A264,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L265" t="str">
+        <f>IF(ISBLANK(A265),"", NOT(ISERROR(MATCH(A265,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L266" t="str">
+        <f>IF(ISBLANK(A266),"", NOT(ISERROR(MATCH(A266,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L267" t="str">
+        <f>IF(ISBLANK(A267),"", NOT(ISERROR(MATCH(A267,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L268" t="str">
+        <f>IF(ISBLANK(A268),"", NOT(ISERROR(MATCH(A268,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L269" t="str">
+        <f>IF(ISBLANK(A269),"", NOT(ISERROR(MATCH(A269,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L270" t="str">
+        <f>IF(ISBLANK(A270),"", NOT(ISERROR(MATCH(A270,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L271" t="str">
+        <f>IF(ISBLANK(A271),"", NOT(ISERROR(MATCH(A271,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L272" t="str">
+        <f>IF(ISBLANK(A272),"", NOT(ISERROR(MATCH(A272,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L273" t="str">
+        <f>IF(ISBLANK(A273),"", NOT(ISERROR(MATCH(A273,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L274" t="str">
+        <f>IF(ISBLANK(A274),"", NOT(ISERROR(MATCH(A274,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L275" t="str">
+        <f>IF(ISBLANK(A275),"", NOT(ISERROR(MATCH(A275,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L276" t="str">
+        <f>IF(ISBLANK(A276),"", NOT(ISERROR(MATCH(A276,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L277" t="str">
+        <f>IF(ISBLANK(A277),"", NOT(ISERROR(MATCH(A277,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L278" t="str">
+        <f>IF(ISBLANK(A278),"", NOT(ISERROR(MATCH(A278,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L279" t="str">
+        <f>IF(ISBLANK(A279),"", NOT(ISERROR(MATCH(A279,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L280" t="str">
+        <f>IF(ISBLANK(A280),"", NOT(ISERROR(MATCH(A280,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L281" t="str">
+        <f>IF(ISBLANK(A281),"", NOT(ISERROR(MATCH(A281,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L282" t="str">
+        <f>IF(ISBLANK(A282),"", NOT(ISERROR(MATCH(A282,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L283" t="str">
+        <f>IF(ISBLANK(A283),"", NOT(ISERROR(MATCH(A283,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L284" t="str">
+        <f>IF(ISBLANK(A284),"", NOT(ISERROR(MATCH(A284,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L285" t="str">
+        <f>IF(ISBLANK(A285),"", NOT(ISERROR(MATCH(A285,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L286" t="str">
+        <f>IF(ISBLANK(A286),"", NOT(ISERROR(MATCH(A286,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L287" t="str">
+        <f>IF(ISBLANK(A287),"", NOT(ISERROR(MATCH(A287,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L288" t="str">
+        <f>IF(ISBLANK(A288),"", NOT(ISERROR(MATCH(A288,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L289" t="str">
+        <f>IF(ISBLANK(A289),"", NOT(ISERROR(MATCH(A289,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L290" t="str">
+        <f>IF(ISBLANK(A290),"", NOT(ISERROR(MATCH(A290,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L291" t="str">
+        <f>IF(ISBLANK(A291),"", NOT(ISERROR(MATCH(A291,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L292" t="str">
+        <f>IF(ISBLANK(A292),"", NOT(ISERROR(MATCH(A292,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L293" t="str">
+        <f>IF(ISBLANK(A293),"", NOT(ISERROR(MATCH(A293,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L294" t="str">
+        <f>IF(ISBLANK(A294),"", NOT(ISERROR(MATCH(A294,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L295" t="str">
+        <f>IF(ISBLANK(A295),"", NOT(ISERROR(MATCH(A295,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L296" t="str">
+        <f>IF(ISBLANK(A296),"", NOT(ISERROR(MATCH(A296,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L297" t="str">
+        <f>IF(ISBLANK(A297),"", NOT(ISERROR(MATCH(A297,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L298" t="str">
+        <f>IF(ISBLANK(A298),"", NOT(ISERROR(MATCH(A298,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L299" t="str">
+        <f>IF(ISBLANK(A299),"", NOT(ISERROR(MATCH(A299,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L300" t="str">
+        <f>IF(ISBLANK(A300),"", NOT(ISERROR(MATCH(A300,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L301" t="str">
+        <f>IF(ISBLANK(A301),"", NOT(ISERROR(MATCH(A301,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L302" t="str">
+        <f>IF(ISBLANK(A302),"", NOT(ISERROR(MATCH(A302,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L303" t="str">
+        <f>IF(ISBLANK(A303),"", NOT(ISERROR(MATCH(A303,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L304" t="str">
+        <f>IF(ISBLANK(A304),"", NOT(ISERROR(MATCH(A304,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L305" t="str">
+        <f>IF(ISBLANK(A305),"", NOT(ISERROR(MATCH(A305,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L306" t="str">
+        <f>IF(ISBLANK(A306),"", NOT(ISERROR(MATCH(A306,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L307" t="str">
+        <f>IF(ISBLANK(A307),"", NOT(ISERROR(MATCH(A307,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L308" t="str">
+        <f>IF(ISBLANK(A308),"", NOT(ISERROR(MATCH(A308,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L309" t="str">
+        <f>IF(ISBLANK(A309),"", NOT(ISERROR(MATCH(A309,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L310" t="str">
+        <f>IF(ISBLANK(A310),"", NOT(ISERROR(MATCH(A310,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L311" t="str">
+        <f>IF(ISBLANK(A311),"", NOT(ISERROR(MATCH(A311,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L312" t="str">
+        <f>IF(ISBLANK(A312),"", NOT(ISERROR(MATCH(A312,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L313" t="str">
+        <f>IF(ISBLANK(A313),"", NOT(ISERROR(MATCH(A313,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L314" t="str">
+        <f>IF(ISBLANK(A314),"", NOT(ISERROR(MATCH(A314,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L315" t="str">
+        <f>IF(ISBLANK(A315),"", NOT(ISERROR(MATCH(A315,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L316" t="str">
+        <f>IF(ISBLANK(A316),"", NOT(ISERROR(MATCH(A316,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L317" t="str">
+        <f>IF(ISBLANK(A317),"", NOT(ISERROR(MATCH(A317,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L318" t="str">
+        <f>IF(ISBLANK(A318),"", NOT(ISERROR(MATCH(A318,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L319" t="str">
+        <f>IF(ISBLANK(A319),"", NOT(ISERROR(MATCH(A319,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L320" t="str">
+        <f>IF(ISBLANK(A320),"", NOT(ISERROR(MATCH(A320,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L321" t="str">
+        <f>IF(ISBLANK(A321),"", NOT(ISERROR(MATCH(A321,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L322" t="str">
+        <f>IF(ISBLANK(A322),"", NOT(ISERROR(MATCH(A322,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L323" t="str">
+        <f>IF(ISBLANK(A323),"", NOT(ISERROR(MATCH(A323,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L324" t="str">
+        <f>IF(ISBLANK(A324),"", NOT(ISERROR(MATCH(A324,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L325" t="str">
+        <f>IF(ISBLANK(A325),"", NOT(ISERROR(MATCH(A325,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L326" t="str">
+        <f>IF(ISBLANK(A326),"", NOT(ISERROR(MATCH(A326,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L327" t="str">
+        <f>IF(ISBLANK(A327),"", NOT(ISERROR(MATCH(A327,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L328" t="str">
+        <f>IF(ISBLANK(A328),"", NOT(ISERROR(MATCH(A328,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L329" t="str">
+        <f>IF(ISBLANK(A329),"", NOT(ISERROR(MATCH(A329,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L330" t="str">
+        <f>IF(ISBLANK(A330),"", NOT(ISERROR(MATCH(A330,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L331" t="str">
+        <f>IF(ISBLANK(A331),"", NOT(ISERROR(MATCH(A331,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L332" t="str">
+        <f>IF(ISBLANK(A332),"", NOT(ISERROR(MATCH(A332,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L333" t="str">
+        <f>IF(ISBLANK(A333),"", NOT(ISERROR(MATCH(A333,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L334" t="str">
+        <f>IF(ISBLANK(A334),"", NOT(ISERROR(MATCH(A334,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L335" t="str">
+        <f>IF(ISBLANK(A335),"", NOT(ISERROR(MATCH(A335,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L336" t="str">
+        <f>IF(ISBLANK(A336),"", NOT(ISERROR(MATCH(A336,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L337" t="str">
+        <f>IF(ISBLANK(A337),"", NOT(ISERROR(MATCH(A337,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L338" t="str">
+        <f>IF(ISBLANK(A338),"", NOT(ISERROR(MATCH(A338,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L339" t="str">
+        <f>IF(ISBLANK(A339),"", NOT(ISERROR(MATCH(A339,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L340" t="str">
+        <f>IF(ISBLANK(A340),"", NOT(ISERROR(MATCH(A340,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L341" t="str">
+        <f>IF(ISBLANK(A341),"", NOT(ISERROR(MATCH(A341,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L342" t="str">
+        <f>IF(ISBLANK(A342),"", NOT(ISERROR(MATCH(A342,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L343" t="str">
+        <f>IF(ISBLANK(A343),"", NOT(ISERROR(MATCH(A343,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L344" t="str">
+        <f>IF(ISBLANK(A344),"", NOT(ISERROR(MATCH(A344,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L345" t="str">
+        <f>IF(ISBLANK(A345),"", NOT(ISERROR(MATCH(A345,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L346" t="str">
+        <f>IF(ISBLANK(A346),"", NOT(ISERROR(MATCH(A346,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L347" t="str">
+        <f>IF(ISBLANK(A347),"", NOT(ISERROR(MATCH(A347,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L348" t="str">
+        <f>IF(ISBLANK(A348),"", NOT(ISERROR(MATCH(A348,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L349" t="str">
+        <f>IF(ISBLANK(A349),"", NOT(ISERROR(MATCH(A349,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L350" t="str">
+        <f>IF(ISBLANK(A350),"", NOT(ISERROR(MATCH(A350,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L351" t="str">
+        <f>IF(ISBLANK(A351),"", NOT(ISERROR(MATCH(A351,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L352" t="str">
+        <f>IF(ISBLANK(A352),"", NOT(ISERROR(MATCH(A352,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L353" t="str">
+        <f>IF(ISBLANK(A353),"", NOT(ISERROR(MATCH(A353,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L354" t="str">
+        <f>IF(ISBLANK(A354),"", NOT(ISERROR(MATCH(A354,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L355" t="str">
+        <f>IF(ISBLANK(A355),"", NOT(ISERROR(MATCH(A355,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L356" t="str">
+        <f>IF(ISBLANK(A356),"", NOT(ISERROR(MATCH(A356,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L357" t="str">
+        <f>IF(ISBLANK(A357),"", NOT(ISERROR(MATCH(A357,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L358" t="str">
+        <f>IF(ISBLANK(A358),"", NOT(ISERROR(MATCH(A358,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L359" t="str">
+        <f>IF(ISBLANK(A359),"", NOT(ISERROR(MATCH(A359,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L360" t="str">
+        <f>IF(ISBLANK(A360),"", NOT(ISERROR(MATCH(A360,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L361" t="str">
+        <f>IF(ISBLANK(A361),"", NOT(ISERROR(MATCH(A361,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L362" t="str">
+        <f>IF(ISBLANK(A362),"", NOT(ISERROR(MATCH(A362,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L363" t="str">
+        <f>IF(ISBLANK(A363),"", NOT(ISERROR(MATCH(A363,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L364" t="str">
+        <f>IF(ISBLANK(A364),"", NOT(ISERROR(MATCH(A364,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L365" t="str">
+        <f>IF(ISBLANK(A365),"", NOT(ISERROR(MATCH(A365,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L366" t="str">
+        <f>IF(ISBLANK(A366),"", NOT(ISERROR(MATCH(A366,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L367" t="str">
+        <f>IF(ISBLANK(A367),"", NOT(ISERROR(MATCH(A367,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L368" t="str">
+        <f>IF(ISBLANK(A368),"", NOT(ISERROR(MATCH(A368,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L369" t="str">
+        <f>IF(ISBLANK(A369),"", NOT(ISERROR(MATCH(A369,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L370" t="str">
+        <f>IF(ISBLANK(A370),"", NOT(ISERROR(MATCH(A370,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L371" t="str">
+        <f>IF(ISBLANK(A371),"", NOT(ISERROR(MATCH(A371,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L372" t="str">
+        <f>IF(ISBLANK(A372),"", NOT(ISERROR(MATCH(A372,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L373" t="str">
+        <f>IF(ISBLANK(A373),"", NOT(ISERROR(MATCH(A373,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L374" t="str">
+        <f>IF(ISBLANK(A374),"", NOT(ISERROR(MATCH(A374,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L375" t="str">
+        <f>IF(ISBLANK(A375),"", NOT(ISERROR(MATCH(A375,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L376" t="str">
+        <f>IF(ISBLANK(A376),"", NOT(ISERROR(MATCH(A376,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L377" t="str">
+        <f>IF(ISBLANK(A377),"", NOT(ISERROR(MATCH(A377,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L378" t="str">
+        <f>IF(ISBLANK(A378),"", NOT(ISERROR(MATCH(A378,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L379" t="str">
+        <f>IF(ISBLANK(A379),"", NOT(ISERROR(MATCH(A379,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L380" t="str">
+        <f>IF(ISBLANK(A380),"", NOT(ISERROR(MATCH(A380,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L381" t="str">
+        <f>IF(ISBLANK(A381),"", NOT(ISERROR(MATCH(A381,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L382" t="str">
+        <f>IF(ISBLANK(A382),"", NOT(ISERROR(MATCH(A382,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L383" t="str">
+        <f>IF(ISBLANK(A383),"", NOT(ISERROR(MATCH(A383,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L384" t="str">
+        <f>IF(ISBLANK(A384),"", NOT(ISERROR(MATCH(A384,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L385" t="str">
+        <f>IF(ISBLANK(A385),"", NOT(ISERROR(MATCH(A385,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L386" t="str">
+        <f>IF(ISBLANK(A386),"", NOT(ISERROR(MATCH(A386,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L387" t="str">
+        <f>IF(ISBLANK(A387),"", NOT(ISERROR(MATCH(A387,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L388" t="str">
+        <f>IF(ISBLANK(A388),"", NOT(ISERROR(MATCH(A388,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L389" t="str">
+        <f>IF(ISBLANK(A389),"", NOT(ISERROR(MATCH(A389,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L390" t="str">
+        <f>IF(ISBLANK(A390),"", NOT(ISERROR(MATCH(A390,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L391" t="str">
+        <f>IF(ISBLANK(A391),"", NOT(ISERROR(MATCH(A391,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L392" t="str">
+        <f>IF(ISBLANK(A392),"", NOT(ISERROR(MATCH(A392,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L393" t="str">
+        <f>IF(ISBLANK(A393),"", NOT(ISERROR(MATCH(A393,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L394" t="str">
+        <f>IF(ISBLANK(A394),"", NOT(ISERROR(MATCH(A394,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L395" t="str">
+        <f>IF(ISBLANK(A395),"", NOT(ISERROR(MATCH(A395,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L396" t="str">
+        <f>IF(ISBLANK(A396),"", NOT(ISERROR(MATCH(A396,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L397" t="str">
+        <f>IF(ISBLANK(A397),"", NOT(ISERROR(MATCH(A397,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L398" t="str">
+        <f>IF(ISBLANK(A398),"", NOT(ISERROR(MATCH(A398,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L399" t="str">
+        <f>IF(ISBLANK(A399),"", NOT(ISERROR(MATCH(A399,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L400" t="str">
+        <f>IF(ISBLANK(A400),"", NOT(ISERROR(MATCH(A400,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L401" t="str">
+        <f>IF(ISBLANK(A401),"", NOT(ISERROR(MATCH(A401,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L402" t="str">
+        <f>IF(ISBLANK(A402),"", NOT(ISERROR(MATCH(A402,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L403" t="str">
+        <f>IF(ISBLANK(A403),"", NOT(ISERROR(MATCH(A403,[1]countries!$A$2:$A$198,0))))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K1">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:L1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>A1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A299">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$L2 =FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>